--- a/graded_swim_data.xlsx
+++ b/graded_swim_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -912,11 +912,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>32.55Y</t>
+          <t>51.14Y</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>32.55</v>
+        <v>51.14</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -956,11 +956,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>42.87Y</t>
+          <t>32.55Y</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>42.87</v>
+        <v>32.55</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>51.14Y</t>
+          <t>42.87Y</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>51.14</v>
+        <v>42.87</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:23.79L</t>
+          <t>50.25L</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>83.78999999999999</v>
+        <v>50.25</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1333,16 +1333,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>46.96L</t>
+          <t>1:26.52L</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>46.96</v>
+        <v>86.52</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>42.38L</t>
+          <t>43.37L</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>42.38</v>
+        <v>43.37</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1421,16 +1421,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1:26.52L</t>
+          <t>46.96L</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>86.52</v>
+        <v>46.96</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1465,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1484,11 +1484,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>50.25L</t>
+          <t>1:23.79L</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>50.25</v>
+        <v>83.78999999999999</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>43.37L</t>
+          <t>42.38L</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>43.37</v>
+        <v>42.38</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1905,11 +1905,11 @@
         <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>35.57L</t>
+          <t>3:48.64L</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>35.57</v>
+        <v>228.64</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -1949,11 +1949,11 @@
         <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1:24.69LL</t>
+          <t>53.92L</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>84.69</v>
+        <v>53.92</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1993,11 +1993,11 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3:09.71L</t>
+          <t>1:42.37L</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>189.71</v>
+        <v>102.37</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1:42.37L</t>
+          <t>1:24.69LL</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>102.37</v>
+        <v>84.69</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2100,11 +2100,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>53.92L</t>
+          <t>35.57L</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>53.92</v>
+        <v>35.57</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:48.64L</t>
+          <t>3:09.71L</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>228.64</v>
+        <v>189.71</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2477,11 +2477,11 @@
         <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2496,11 +2496,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>32.67Y</t>
+          <t>1:24.49Y</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>32.67</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2540,11 +2540,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>42.27Y</t>
+          <t>38.85Y</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>42.27</v>
+        <v>38.85</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>38.85Y</t>
+          <t>42.27Y</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>38.85</v>
+        <v>42.27</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2653,11 +2653,11 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1:24.49Y</t>
+          <t>32.67Y</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>84.48999999999999</v>
+        <v>32.67</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>36.90Y</t>
+          <t>37.74Y</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>36.9</v>
+        <v>37.74</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3112,11 +3112,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1:09.69Y</t>
+          <t>1:23.71Y</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>69.69</v>
+        <v>83.71000000000001</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1:23.71Y</t>
+          <t>1:09.69Y</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>83.71000000000001</v>
+        <v>69.69</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>37.74Y</t>
+          <t>36.90Y</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>37.74</v>
+        <v>36.9</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         <v>12</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3596,11 +3596,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1:07.76Y</t>
+          <t>2:54.56Y</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>67.76000000000001</v>
+        <v>174.56</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3665,11 +3665,11 @@
         <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3684,11 +3684,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2:54.56Y</t>
+          <t>1:07.76Y</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>174.56</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4652,11 +4652,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1:16.84L</t>
+          <t>1:33.25L</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>76.84</v>
+        <v>93.25</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4677,11 +4677,11 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4696,11 +4696,11 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1:33.25L</t>
+          <t>38.59L</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>93.25</v>
+        <v>38.59</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4721,11 +4721,11 @@
         <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4740,11 +4740,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>38.59L</t>
+          <t>1:16.84L</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>38.59</v>
+        <v>76.84</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5161,16 +5161,16 @@
         <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5180,11 +5180,11 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2:40.56L</t>
+          <t>51.48L</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>160.56</v>
+        <v>51.48</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -5205,16 +5205,16 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>53.96L</t>
+          <t>2:45.06L</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>53.96</v>
+        <v>165.06</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5249,16 +5249,16 @@
         <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5268,11 +5268,11 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2:45.06L</t>
+          <t>53.96L</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>165.06</v>
+        <v>53.96</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -5293,16 +5293,16 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5312,11 +5312,11 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>51.48L</t>
+          <t>2:40.56L</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>51.48</v>
+        <v>160.56</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5733,11 +5733,11 @@
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5752,11 +5752,11 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2:33.12L</t>
+          <t>1:30.33L</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>153.12</v>
+        <v>90.33</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5821,11 +5821,11 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5840,11 +5840,11 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1:30.33L</t>
+          <t>2:33.12L</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>90.33</v>
+        <v>153.12</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6261,16 +6261,16 @@
         <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1:11.63L</t>
+          <t>37.52L</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>71.63</v>
+        <v>37.52</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6349,16 +6349,16 @@
         <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6368,11 +6368,11 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>37.52L</t>
+          <t>1:11.63L</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>37.52</v>
+        <v>71.63</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6789,11 +6789,11 @@
         <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27.42Y</t>
+          <t>2:37.19Y</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>27.42</v>
+        <v>157.19</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6877,11 +6877,11 @@
         <v>13</v>
       </c>
       <c r="C147" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6896,11 +6896,11 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2:37.19Y</t>
+          <t>27.42Y</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>157.19</v>
+        <v>27.42</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7273,16 +7273,16 @@
         <v>13</v>
       </c>
       <c r="C156" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7292,11 +7292,11 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>28.20Y</t>
+          <t>2:38.62Y</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>28.2</v>
+        <v>158.62</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7317,16 +7317,16 @@
         <v>13</v>
       </c>
       <c r="C157" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7336,11 +7336,11 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2:38.35Y</t>
+          <t>27.82Y</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>158.35</v>
+        <v>27.82</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -7361,11 +7361,11 @@
         <v>13</v>
       </c>
       <c r="C158" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7380,11 +7380,11 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27.82Y</t>
+          <t>1:16.42Y</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>27.82</v>
+        <v>76.42</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -7405,16 +7405,16 @@
         <v>13</v>
       </c>
       <c r="C159" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1:16.42Y</t>
+          <t>28.20Y</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>76.42</v>
+        <v>28.2</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7468,11 +7468,11 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2:38.62Y</t>
+          <t>2:38.35Y</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>158.62</v>
+        <v>158.35</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -7908,11 +7908,11 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28.43Y</t>
+          <t>5:44.73Y</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>28.43</v>
+        <v>344.73</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
         <v>13</v>
       </c>
       <c r="C171" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>5:44.73Y</t>
+          <t>28.43Y</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>344.73</v>
+        <v>28.43</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
         <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -8348,11 +8348,11 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>30.80L</t>
+          <t>2:29.07L</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>30.8</v>
+        <v>149.07</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>13</v>
       </c>
       <c r="C181" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -8392,11 +8392,11 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2:29.07L</t>
+          <t>5:29.21L</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>149.07</v>
+        <v>329.21</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
         <v>13</v>
       </c>
       <c r="C182" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -8436,11 +8436,11 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5:29.21L</t>
+          <t>30.80L</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>329.21</v>
+        <v>30.8</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8681,16 +8681,16 @@
         <v>13</v>
       </c>
       <c r="C188" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8700,11 +8700,11 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2:27.04L</t>
+          <t>1:22.17L</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>147.04</v>
+        <v>82.17</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8725,11 +8725,11 @@
         <v>13</v>
       </c>
       <c r="C189" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8744,11 +8744,11 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1:26.40L</t>
+          <t>2:27.04L</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>86.40000000000001</v>
+        <v>147.04</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8769,11 +8769,11 @@
         <v>13</v>
       </c>
       <c r="C190" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8788,11 +8788,11 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5:56.65L</t>
+          <t>1:26.40L</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>356.65</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -8813,16 +8813,16 @@
         <v>13</v>
       </c>
       <c r="C191" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2:28.87L</t>
+          <t>5:56.65L</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>148.87</v>
+        <v>356.65</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -8857,11 +8857,11 @@
         <v>13</v>
       </c>
       <c r="C192" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8876,11 +8876,11 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1:22.17L</t>
+          <t>2:28.87L</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>82.17</v>
+        <v>148.87</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8945,16 +8945,16 @@
         <v>13</v>
       </c>
       <c r="C194" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8964,11 +8964,11 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1:08.26L</t>
+          <t>3:04.66L</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>68.26000000000001</v>
+        <v>184.66</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -8989,16 +8989,16 @@
         <v>13</v>
       </c>
       <c r="C195" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9008,11 +9008,11 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2:59.40L</t>
+          <t>1:09.08L</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>179.4</v>
+        <v>69.08</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>13</v>
       </c>
       <c r="C196" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -9052,11 +9052,11 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>5:09.96L</t>
+          <t>1:08.26L</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>309.96</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -9077,16 +9077,16 @@
         <v>13</v>
       </c>
       <c r="C197" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -9096,11 +9096,11 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1:09.08L</t>
+          <t>2:59.40L</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>69.08</v>
+        <v>179.4</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9121,16 +9121,16 @@
         <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9140,11 +9140,11 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3:04.66L</t>
+          <t>5:09.96L</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>184.66</v>
+        <v>309.96</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -9536,11 +9536,11 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>1:08.10LL</t>
+          <t>5:11.07L</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>68.09999999999999</v>
+        <v>311.07</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -9561,11 +9561,11 @@
         <v>13</v>
       </c>
       <c r="C208" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9580,11 +9580,11 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>30.59L</t>
+          <t>2:51.19L</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>30.59</v>
+        <v>171.19</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -9605,16 +9605,16 @@
         <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -9624,11 +9624,11 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2:51.19L</t>
+          <t>1:08.10LL</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>171.19</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -9668,11 +9668,11 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>5:11.07L</t>
+          <t>30.59L</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>311.07</v>
+        <v>30.59</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>1:03.59Y</t>
+          <t>1:10.02Y</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>63.59</v>
+        <v>70.02</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9888,11 +9888,11 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1:14.70Y</t>
+          <t>1:03.59Y</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>74.7</v>
+        <v>63.59</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9932,11 +9932,11 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1:30.58Y</t>
+          <t>1:14.70Y</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>90.58</v>
+        <v>74.7</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9976,11 +9976,11 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>1:10.02Y</t>
+          <t>1:30.58Y</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>70.02</v>
+        <v>90.58</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -10397,16 +10397,16 @@
         <v>13</v>
       </c>
       <c r="C227" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -10416,11 +10416,11 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>26.06Y</t>
+          <t>1:06.17Y</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>26.06</v>
+        <v>66.17</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -10460,11 +10460,11 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2:01.89Y</t>
+          <t>26.36Y</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>121.89</v>
+        <v>26.36</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10485,16 +10485,16 @@
         <v>13</v>
       </c>
       <c r="C229" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -10504,11 +10504,11 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>1:07.34Y</t>
+          <t>2:03.55Y</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>67.34</v>
+        <v>123.55</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -10548,11 +10548,11 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>26.36Y</t>
+          <t>2:01.89Y</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>26.36</v>
+        <v>121.89</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="C231" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -10592,11 +10592,11 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2:03.55Y</t>
+          <t>26.06Y</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>123.55</v>
+        <v>26.06</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -10636,11 +10636,11 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>1:06.17Y</t>
+          <t>1:07.34Y</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>66.17</v>
+        <v>67.34</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -11076,11 +11076,11 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2:27.62Y</t>
+          <t>2:27.76Y</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>147.62</v>
+        <v>147.76</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -11164,11 +11164,11 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2:27.76Y</t>
+          <t>2:27.62Y</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>147.76</v>
+        <v>147.62</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -11497,11 +11497,11 @@
         <v>14</v>
       </c>
       <c r="C252" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11516,11 +11516,11 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>25.96Y</t>
+          <t>2:31.65Y</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>25.96</v>
+        <v>151.65</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
         <v>14</v>
       </c>
       <c r="C253" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -11560,11 +11560,11 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>5:24.55Y</t>
+          <t>11:11.49Y</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>324.55</v>
+        <v>671.49</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>14</v>
       </c>
       <c r="C254" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -11604,11 +11604,11 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>11:11.49Y</t>
+          <t>25.96Y</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>671.49</v>
+        <v>25.96</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11629,11 +11629,11 @@
         <v>14</v>
       </c>
       <c r="C255" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11648,11 +11648,11 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2:31.65Y</t>
+          <t>5:24.55Y</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>151.65</v>
+        <v>324.55</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11981,16 +11981,16 @@
         <v>14</v>
       </c>
       <c r="C263" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -12000,11 +12000,11 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>5:11.28Y</t>
+          <t>2:17.83Y</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>311.28</v>
+        <v>137.83</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12029,12 +12029,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -12044,11 +12044,11 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1:04.61YL</t>
+          <t>1:00.26Y</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>64.61</v>
+        <v>60.26</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12069,16 +12069,16 @@
         <v>14</v>
       </c>
       <c r="C265" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -12088,11 +12088,11 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>1:01.29Y</t>
+          <t>5:16.88Y</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>61.29</v>
+        <v>316.88</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12113,16 +12113,16 @@
         <v>14</v>
       </c>
       <c r="C266" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -12132,11 +12132,11 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>5:16.88Y</t>
+          <t>1:04.61YL</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>316.88</v>
+        <v>64.61</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12157,16 +12157,16 @@
         <v>14</v>
       </c>
       <c r="C267" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -12176,11 +12176,11 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>1:00.26Y</t>
+          <t>5:11.28Y</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>60.26</v>
+        <v>311.28</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12201,16 +12201,16 @@
         <v>14</v>
       </c>
       <c r="C268" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -12220,11 +12220,11 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2:17.83Y</t>
+          <t>1:01.29Y</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>137.83</v>
+        <v>61.29</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -12421,16 +12421,16 @@
         <v>14</v>
       </c>
       <c r="C273" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -12440,11 +12440,11 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>18:16.27Y</t>
+          <t>2:15.53Y</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>1096.27</v>
+        <v>135.53</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12465,11 +12465,11 @@
         <v>14</v>
       </c>
       <c r="C274" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -12484,11 +12484,11 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2:21.74Y</t>
+          <t>18:16.27Y</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>141.74</v>
+        <v>1096.27</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12509,16 +12509,16 @@
         <v>14</v>
       </c>
       <c r="C275" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -12528,11 +12528,11 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>54.76Y</t>
+          <t>2:21.74Y</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>54.76</v>
+        <v>141.74</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12553,11 +12553,11 @@
         <v>14</v>
       </c>
       <c r="C276" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12572,11 +12572,11 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2:15.53Y</t>
+          <t>54.76Y</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>135.53</v>
+        <v>54.76</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12597,11 +12597,11 @@
         <v>14</v>
       </c>
       <c r="C277" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12616,11 +12616,11 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>5:25.58Y</t>
+          <t>1:02.28Y</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>325.58</v>
+        <v>62.28</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12641,11 +12641,11 @@
         <v>14</v>
       </c>
       <c r="C278" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12660,11 +12660,11 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>1:02.28Y</t>
+          <t>5:25.58Y</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>62.28</v>
+        <v>325.58</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12993,11 +12993,11 @@
         <v>14</v>
       </c>
       <c r="C286" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -13012,11 +13012,11 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>28.70L</t>
+          <t>2:33.53L</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>28.7</v>
+        <v>153.53</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -13037,11 +13037,11 @@
         <v>14</v>
       </c>
       <c r="C287" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13056,11 +13056,11 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2:33.53L</t>
+          <t>9:59.93L</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>153.53</v>
+        <v>599.9299999999999</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
       <c r="C288" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -13100,11 +13100,11 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>9:59.93L</t>
+          <t>28.70L</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>599.9299999999999</v>
+        <v>28.7</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -13125,11 +13125,11 @@
         <v>14</v>
       </c>
       <c r="C289" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -13144,11 +13144,11 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2:17.40L</t>
+          <t>1:09.42L</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>137.4</v>
+        <v>69.42</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13169,11 +13169,11 @@
         <v>14</v>
       </c>
       <c r="C290" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -13188,11 +13188,11 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2:35.38L</t>
+          <t>5:32.80L</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>155.38</v>
+        <v>332.8</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -13213,11 +13213,11 @@
         <v>14</v>
       </c>
       <c r="C291" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -13232,11 +13232,11 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>1:09.42L</t>
+          <t>2:17.40L</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>69.42</v>
+        <v>137.4</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13257,11 +13257,11 @@
         <v>14</v>
       </c>
       <c r="C292" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>5:32.80L</t>
+          <t>2:35.38L</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>332.8</v>
+        <v>155.38</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -13653,11 +13653,11 @@
         <v>14</v>
       </c>
       <c r="C301" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -13672,11 +13672,11 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>1:29.06L</t>
+          <t>18:47.63L</t>
         </is>
       </c>
       <c r="H301" t="n">
-        <v>89.06</v>
+        <v>1127.63</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -13741,11 +13741,11 @@
         <v>14</v>
       </c>
       <c r="C303" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13760,11 +13760,11 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>18:47.63L</t>
+          <t>1:29.06L</t>
         </is>
       </c>
       <c r="H303" t="n">
-        <v>1127.63</v>
+        <v>89.06</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -14141,12 +14141,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -14156,11 +14156,11 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2:14.63L</t>
+          <t>2:38.66L</t>
         </is>
       </c>
       <c r="H312" t="n">
-        <v>134.63</v>
+        <v>158.66</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14181,11 +14181,11 @@
         <v>14</v>
       </c>
       <c r="C313" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -14200,11 +14200,11 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2:30.49L</t>
+          <t>9:36.18L</t>
         </is>
       </c>
       <c r="H313" t="n">
-        <v>150.49</v>
+        <v>576.1799999999999</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -14225,7 +14225,7 @@
         <v>14</v>
       </c>
       <c r="C314" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -14244,11 +14244,11 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>9:36.18L</t>
+          <t>2:12.82L</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>576.1799999999999</v>
+        <v>132.82</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -14288,11 +14288,11 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2:12.82L</t>
+          <t>2:14.63L</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>132.82</v>
+        <v>134.63</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -14332,11 +14332,11 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2:38.66L</t>
+          <t>2:30.49L</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>158.66</v>
+        <v>150.49</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
         <v>14</v>
       </c>
       <c r="C323" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -14640,11 +14640,11 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>1:00.76L</t>
+          <t>4:39.06L</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>60.76</v>
+        <v>279.06</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
@@ -14665,16 +14665,16 @@
         <v>14</v>
       </c>
       <c r="C324" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -14684,11 +14684,11 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2:35.55L</t>
+          <t>1:03.59L</t>
         </is>
       </c>
       <c r="H324" t="n">
-        <v>155.55</v>
+        <v>63.59</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>14</v>
       </c>
       <c r="C325" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -14728,11 +14728,11 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>4:38.37L</t>
+          <t>2:40.03L</t>
         </is>
       </c>
       <c r="H325" t="n">
-        <v>278.37</v>
+        <v>160.03</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14753,16 +14753,16 @@
         <v>14</v>
       </c>
       <c r="C326" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -14772,11 +14772,11 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>1:03.59L</t>
+          <t>2:35.55L</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>63.59</v>
+        <v>155.55</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
@@ -14797,16 +14797,16 @@
         <v>14</v>
       </c>
       <c r="C327" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -14816,11 +14816,11 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2:40.03L</t>
+          <t>1:00.76L</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>160.03</v>
+        <v>60.76</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -14850,7 +14850,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -14860,11 +14860,11 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>4:39.06L</t>
+          <t>4:38.37L</t>
         </is>
       </c>
       <c r="H328" t="n">
-        <v>279.06</v>
+        <v>278.37</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
@@ -15281,16 +15281,16 @@
         <v>14</v>
       </c>
       <c r="C338" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -15300,11 +15300,11 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>1:05.81L</t>
+          <t>2:38.27L</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>65.81</v>
+        <v>158.27</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -15344,11 +15344,11 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2:48.77L</t>
+          <t>2:53.52L</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>168.77</v>
+        <v>173.52</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15369,16 +15369,16 @@
         <v>14</v>
       </c>
       <c r="C340" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -15388,11 +15388,11 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2:33.59L</t>
+          <t>1:03.13L</t>
         </is>
       </c>
       <c r="H340" t="n">
-        <v>153.59</v>
+        <v>63.13</v>
       </c>
       <c r="I340" t="inlineStr">
         <is>
@@ -15413,16 +15413,16 @@
         <v>14</v>
       </c>
       <c r="C341" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -15432,11 +15432,11 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>1:03.13L</t>
+          <t>2:48.77L</t>
         </is>
       </c>
       <c r="H341" t="n">
-        <v>63.13</v>
+        <v>168.77</v>
       </c>
       <c r="I341" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15457,16 +15457,16 @@
         <v>14</v>
       </c>
       <c r="C342" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -15476,11 +15476,11 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2:53.52L</t>
+          <t>1:05.81L</t>
         </is>
       </c>
       <c r="H342" t="n">
-        <v>173.52</v>
+        <v>65.81</v>
       </c>
       <c r="I342" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -15520,11 +15520,11 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2:38.27L</t>
+          <t>2:33.59L</t>
         </is>
       </c>
       <c r="H343" t="n">
-        <v>158.27</v>
+        <v>153.59</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -15784,11 +15784,11 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>25.63Y</t>
+          <t>40.16Y</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>25.63</v>
+        <v>40.16</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -15828,11 +15828,11 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>30.76Y</t>
+          <t>27.67Y</t>
         </is>
       </c>
       <c r="H350" t="n">
-        <v>30.76</v>
+        <v>27.67</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15857,7 +15857,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -15872,11 +15872,11 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>40.16Y</t>
+          <t>25.63Y</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>40.16</v>
+        <v>25.63</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -15916,11 +15916,11 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>27.67Y</t>
+          <t>30.76Y</t>
         </is>
       </c>
       <c r="H352" t="n">
-        <v>27.67</v>
+        <v>30.76</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
         <v>14</v>
       </c>
       <c r="C353" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -15960,11 +15960,11 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>24.78Y</t>
+          <t>5:07.14Y</t>
         </is>
       </c>
       <c r="H353" t="n">
-        <v>24.78</v>
+        <v>307.14</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -15985,11 +15985,11 @@
         <v>14</v>
       </c>
       <c r="C354" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -16004,11 +16004,11 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>5:07.14Y</t>
+          <t>2:22.71Y</t>
         </is>
       </c>
       <c r="H354" t="n">
-        <v>307.14</v>
+        <v>142.71</v>
       </c>
       <c r="I354" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16029,11 +16029,11 @@
         <v>14</v>
       </c>
       <c r="C355" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -16048,11 +16048,11 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2:22.71Y</t>
+          <t>24.78Y</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>142.71</v>
+        <v>24.78</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16073,11 +16073,11 @@
         <v>14</v>
       </c>
       <c r="C356" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -16092,11 +16092,11 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>25.85YL</t>
+          <t>5:07.00Y</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>25.85</v>
+        <v>307</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>14</v>
       </c>
       <c r="C357" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -16136,11 +16136,11 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>1:59.28Y</t>
+          <t>25.85YL</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>119.28</v>
+        <v>25.85</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16161,11 +16161,11 @@
         <v>14</v>
       </c>
       <c r="C358" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -16180,11 +16180,11 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1:04.50Y</t>
+          <t>1:59.28Y</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>64.5</v>
+        <v>119.28</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16205,11 +16205,11 @@
         <v>14</v>
       </c>
       <c r="C359" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -16224,11 +16224,11 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>3:03.74Y</t>
+          <t>1:04.50Y</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>183.74</v>
+        <v>64.5</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16249,11 +16249,11 @@
         <v>14</v>
       </c>
       <c r="C360" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -16268,11 +16268,11 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>1:01.43Y</t>
+          <t>3:03.74Y</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>61.43</v>
+        <v>183.74</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
         <v>14</v>
       </c>
       <c r="C361" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -16312,11 +16312,11 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2:36.92Y</t>
+          <t>1:01.43Y</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>156.92</v>
+        <v>61.43</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16337,11 +16337,11 @@
         <v>14</v>
       </c>
       <c r="C362" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -16356,11 +16356,11 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>5:07.00Y</t>
+          <t>2:36.92Y</t>
         </is>
       </c>
       <c r="H362" t="n">
-        <v>307</v>
+        <v>156.92</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -16381,11 +16381,11 @@
         <v>14</v>
       </c>
       <c r="C363" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16400,11 +16400,11 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>53.48Y</t>
+          <t>2:14.41Y</t>
         </is>
       </c>
       <c r="H363" t="n">
-        <v>53.48</v>
+        <v>134.41</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16469,11 +16469,11 @@
         <v>14</v>
       </c>
       <c r="C365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -16488,11 +16488,11 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2:14.41Y</t>
+          <t>53.48Y</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>134.41</v>
+        <v>53.48</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16595,13 +16595,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
       <c r="B368" t="n">
         <v>14</v>
       </c>
       <c r="C368" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -16620,32 +16620,32 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>5:04.05Y</t>
+          <t>2:02.67Y</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>304.05</v>
+        <v>122.67</v>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Jenks Gobbler Invitational 202</t>
+          <t>2025 Wildcats Invitational</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45969</v>
+        <v>45966</v>
       </c>
       <c r="B369" t="n">
         <v>14</v>
       </c>
       <c r="C369" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -16664,36 +16664,36 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>1:52.68Y</t>
+          <t>5:29.01Y</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>112.68</v>
+        <v>329.01</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Jenks Gobbler Invitational 202</t>
+          <t>2025 Wildcats Invitational</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="B370" t="n">
         <v>14</v>
       </c>
       <c r="C370" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -16708,11 +16708,11 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>57.90Y</t>
+          <t>5:04.05Y</t>
         </is>
       </c>
       <c r="H370" t="n">
-        <v>57.9</v>
+        <v>304.05</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
@@ -16733,11 +16733,11 @@
         <v>14</v>
       </c>
       <c r="C371" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -16752,11 +16752,11 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2:10.20Y</t>
+          <t>57.90Y</t>
         </is>
       </c>
       <c r="H371" t="n">
-        <v>130.2</v>
+        <v>57.9</v>
       </c>
       <c r="I371" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -16781,12 +16781,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -16796,11 +16796,11 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>1:58.45Y</t>
+          <t>2:10.20Y</t>
         </is>
       </c>
       <c r="H372" t="n">
-        <v>118.45</v>
+        <v>130.2</v>
       </c>
       <c r="I372" t="inlineStr">
         <is>
@@ -16821,11 +16821,11 @@
         <v>14</v>
       </c>
       <c r="C373" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -16840,11 +16840,11 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>1:00.50Y</t>
+          <t>1:58.45Y</t>
         </is>
       </c>
       <c r="H373" t="n">
-        <v>60.5</v>
+        <v>118.45</v>
       </c>
       <c r="I373" t="inlineStr">
         <is>
@@ -16865,11 +16865,11 @@
         <v>14</v>
       </c>
       <c r="C374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -16884,11 +16884,11 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>2:18.16Y</t>
+          <t>1:00.50Y</t>
         </is>
       </c>
       <c r="H374" t="n">
-        <v>138.16</v>
+        <v>60.5</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -16897,28 +16897,28 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45970</v>
+        <v>45969</v>
       </c>
       <c r="B375" t="n">
         <v>14</v>
       </c>
       <c r="C375" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -16928,11 +16928,11 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>51.07Y</t>
+          <t>2:18.16Y</t>
         </is>
       </c>
       <c r="H375" t="n">
-        <v>51.07</v>
+        <v>138.16</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
@@ -16941,23 +16941,23 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45970</v>
+        <v>45969</v>
       </c>
       <c r="B376" t="n">
         <v>14</v>
       </c>
       <c r="C376" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -16972,11 +16972,11 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>58.51Y</t>
+          <t>1:52.68Y</t>
         </is>
       </c>
       <c r="H376" t="n">
-        <v>58.51</v>
+        <v>112.68</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -17016,11 +17016,11 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>2:07.41Y</t>
+          <t>2:12.84Y</t>
         </is>
       </c>
       <c r="H377" t="n">
-        <v>127.41</v>
+        <v>132.84</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -17060,11 +17060,11 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>53.83Y</t>
+          <t>1:01.09Y</t>
         </is>
       </c>
       <c r="H378" t="n">
-        <v>53.83</v>
+        <v>61.09</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -17104,11 +17104,11 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>1:01.09Y</t>
+          <t>53.83Y</t>
         </is>
       </c>
       <c r="H379" t="n">
-        <v>61.09</v>
+        <v>53.83</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17129,16 +17129,16 @@
         <v>14</v>
       </c>
       <c r="C380" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -17148,11 +17148,11 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>2:12.84Y</t>
+          <t>51.07Y</t>
         </is>
       </c>
       <c r="H380" t="n">
-        <v>132.84</v>
+        <v>51.07</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
@@ -17161,49 +17161,313 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B381" t="n">
+        <v>14</v>
+      </c>
+      <c r="C381" t="n">
+        <v>200</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>2:07.41Y</t>
+        </is>
+      </c>
+      <c r="H381" t="n">
+        <v>127.41</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Jenks Gobbler Invitational 202</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B382" t="n">
+        <v>14</v>
+      </c>
+      <c r="C382" t="n">
+        <v>100</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>58.51Y</t>
+        </is>
+      </c>
+      <c r="H382" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Jenks Gobbler Invitational 202</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B383" t="n">
+        <v>15</v>
+      </c>
+      <c r="C383" t="n">
+        <v>200</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>2:15.94Y</t>
+        </is>
+      </c>
+      <c r="H383" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>2025 FHS Bulldog Classic</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B384" t="n">
+        <v>15</v>
+      </c>
+      <c r="C384" t="n">
+        <v>100</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Breast</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>1:16.57Y</t>
+        </is>
+      </c>
+      <c r="H384" t="n">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>2025 FHS Bulldog Classic</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B385" t="n">
         <v>15</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C385" t="n">
         <v>1000</v>
       </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>Finals</t>
-        </is>
-      </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>Yards</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
         <is>
           <t>10:51.35Y</t>
         </is>
       </c>
-      <c r="H381" t="n">
+      <c r="H385" t="n">
         <v>651.35</v>
       </c>
-      <c r="I381" t="inlineStr">
+      <c r="I385" t="inlineStr">
         <is>
           <t>Friday Night Frenzy #17</t>
         </is>
       </c>
-      <c r="J381" t="inlineStr">
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B386" t="n">
+        <v>15</v>
+      </c>
+      <c r="C386" t="n">
+        <v>200</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>2:01.24Y</t>
+        </is>
+      </c>
+      <c r="H386" t="n">
+        <v>121.24</v>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Bentonville Schools Classic 12.12.25</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B387" t="n">
+        <v>15</v>
+      </c>
+      <c r="C387" t="n">
+        <v>500</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>5:12.30Y</t>
+        </is>
+      </c>
+      <c r="H387" t="n">
+        <v>312.3</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Bentonville Schools Classic 12.12.25</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/graded_swim_data.xlsx
+++ b/graded_swim_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J387"/>
+  <dimension ref="A1:J395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -912,11 +912,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>51.14Y</t>
+          <t>32.55Y</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>51.14</v>
+        <v>32.55</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -956,11 +956,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>32.55Y</t>
+          <t>42.87Y</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>32.55</v>
+        <v>42.87</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1000,11 +1000,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>42.87Y</t>
+          <t>51.14Y</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>42.87</v>
+        <v>51.14</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>50.25L</t>
+          <t>1:23.79L</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>50.25</v>
+        <v>83.78999999999999</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1333,16 +1333,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:26.52L</t>
+          <t>46.96L</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>86.52</v>
+        <v>46.96</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>43.37L</t>
+          <t>42.38L</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>43.37</v>
+        <v>42.38</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1421,16 +1421,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>46.96L</t>
+          <t>1:26.52L</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>46.96</v>
+        <v>86.52</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1465,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1484,11 +1484,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1:23.79L</t>
+          <t>50.25L</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>83.78999999999999</v>
+        <v>50.25</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42.38L</t>
+          <t>43.37L</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>42.38</v>
+        <v>43.37</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1905,11 +1905,11 @@
         <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:48.64L</t>
+          <t>35.57L</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>228.64</v>
+        <v>35.57</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1949,11 +1949,11 @@
         <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>53.92L</t>
+          <t>1:24.69LL</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>53.92</v>
+        <v>84.69</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1993,11 +1993,11 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1:42.37L</t>
+          <t>3:09.71L</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>102.37</v>
+        <v>189.71</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1:24.69LL</t>
+          <t>1:42.37L</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>84.69</v>
+        <v>102.37</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2100,11 +2100,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>35.57L</t>
+          <t>53.92L</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>35.57</v>
+        <v>53.92</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:09.71L</t>
+          <t>3:48.64L</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>189.71</v>
+        <v>228.64</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2477,11 +2477,11 @@
         <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2496,11 +2496,11 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1:24.49Y</t>
+          <t>32.67Y</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>84.48999999999999</v>
+        <v>32.67</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2540,11 +2540,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>38.85Y</t>
+          <t>42.27Y</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>38.85</v>
+        <v>42.27</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>42.27Y</t>
+          <t>38.85Y</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>42.27</v>
+        <v>38.85</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2653,11 +2653,11 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>32.67Y</t>
+          <t>1:24.49Y</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>32.67</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>37.74Y</t>
+          <t>36.90Y</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>37.74</v>
+        <v>36.9</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3112,11 +3112,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1:23.71Y</t>
+          <t>1:09.69Y</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>83.71000000000001</v>
+        <v>69.69</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1:09.69Y</t>
+          <t>1:23.71Y</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>69.69</v>
+        <v>83.71000000000001</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>36.90Y</t>
+          <t>37.74Y</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>36.9</v>
+        <v>37.74</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         <v>12</v>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3596,11 +3596,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2:54.56Y</t>
+          <t>1:07.76Y</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>174.56</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3665,11 +3665,11 @@
         <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3684,11 +3684,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1:07.76Y</t>
+          <t>2:54.56Y</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>67.76000000000001</v>
+        <v>174.56</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4652,11 +4652,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1:33.25L</t>
+          <t>1:16.84L</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>93.25</v>
+        <v>76.84</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4677,11 +4677,11 @@
         <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4696,11 +4696,11 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>38.59L</t>
+          <t>1:33.25L</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>38.59</v>
+        <v>93.25</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4721,11 +4721,11 @@
         <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4740,11 +4740,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1:16.84L</t>
+          <t>38.59L</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>76.84</v>
+        <v>38.59</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5161,16 +5161,16 @@
         <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5180,11 +5180,11 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>51.48L</t>
+          <t>2:40.56L</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>51.48</v>
+        <v>160.56</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5205,16 +5205,16 @@
         <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2:45.06L</t>
+          <t>53.96L</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>165.06</v>
+        <v>53.96</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -5249,16 +5249,16 @@
         <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5268,11 +5268,11 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>53.96L</t>
+          <t>2:45.06L</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>53.96</v>
+        <v>165.06</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5293,16 +5293,16 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5312,11 +5312,11 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2:40.56L</t>
+          <t>51.48L</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>160.56</v>
+        <v>51.48</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -5733,11 +5733,11 @@
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5752,11 +5752,11 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1:30.33L</t>
+          <t>2:33.12L</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>90.33</v>
+        <v>153.12</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5821,11 +5821,11 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5840,11 +5840,11 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2:33.12L</t>
+          <t>1:30.33L</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>153.12</v>
+        <v>90.33</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6261,16 +6261,16 @@
         <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>37.52L</t>
+          <t>1:11.63L</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>37.52</v>
+        <v>71.63</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6349,16 +6349,16 @@
         <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6368,11 +6368,11 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1:11.63L</t>
+          <t>37.52L</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>71.63</v>
+        <v>37.52</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6789,11 +6789,11 @@
         <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2:37.19Y</t>
+          <t>27.42Y</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>157.19</v>
+        <v>27.42</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6877,11 +6877,11 @@
         <v>13</v>
       </c>
       <c r="C147" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6896,11 +6896,11 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>27.42Y</t>
+          <t>2:37.19Y</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>27.42</v>
+        <v>157.19</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7273,16 +7273,16 @@
         <v>13</v>
       </c>
       <c r="C156" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7292,11 +7292,11 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2:38.62Y</t>
+          <t>28.20Y</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>158.62</v>
+        <v>28.2</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7317,16 +7317,16 @@
         <v>13</v>
       </c>
       <c r="C157" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7336,11 +7336,11 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27.82Y</t>
+          <t>2:38.35Y</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>27.82</v>
+        <v>158.35</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -7361,11 +7361,11 @@
         <v>13</v>
       </c>
       <c r="C158" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7380,11 +7380,11 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1:16.42Y</t>
+          <t>27.82Y</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>76.42</v>
+        <v>27.82</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7405,16 +7405,16 @@
         <v>13</v>
       </c>
       <c r="C159" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28.20Y</t>
+          <t>1:16.42Y</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>28.2</v>
+        <v>76.42</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7468,11 +7468,11 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2:38.35Y</t>
+          <t>2:38.62Y</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>158.35</v>
+        <v>158.62</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -7908,11 +7908,11 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>5:44.73Y</t>
+          <t>28.43Y</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>344.73</v>
+        <v>28.43</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
         <v>13</v>
       </c>
       <c r="C171" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28.43Y</t>
+          <t>5:44.73Y</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>28.43</v>
+        <v>344.73</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
         <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -8348,11 +8348,11 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2:29.07L</t>
+          <t>30.80L</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>149.07</v>
+        <v>30.8</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>13</v>
       </c>
       <c r="C181" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -8392,11 +8392,11 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5:29.21L</t>
+          <t>2:29.07L</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>329.21</v>
+        <v>149.07</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
         <v>13</v>
       </c>
       <c r="C182" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -8436,11 +8436,11 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>30.80L</t>
+          <t>5:29.21L</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>30.8</v>
+        <v>329.21</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8681,16 +8681,16 @@
         <v>13</v>
       </c>
       <c r="C188" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8700,11 +8700,11 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1:22.17L</t>
+          <t>2:27.04L</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>82.17</v>
+        <v>147.04</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8725,11 +8725,11 @@
         <v>13</v>
       </c>
       <c r="C189" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8744,11 +8744,11 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2:27.04L</t>
+          <t>1:26.40L</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>147.04</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -8769,11 +8769,11 @@
         <v>13</v>
       </c>
       <c r="C190" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8788,11 +8788,11 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1:26.40L</t>
+          <t>5:56.65L</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>86.40000000000001</v>
+        <v>356.65</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8813,16 +8813,16 @@
         <v>13</v>
       </c>
       <c r="C191" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>5:56.65L</t>
+          <t>2:28.87L</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>356.65</v>
+        <v>148.87</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -8857,11 +8857,11 @@
         <v>13</v>
       </c>
       <c r="C192" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8876,11 +8876,11 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2:28.87L</t>
+          <t>1:22.17L</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>148.87</v>
+        <v>82.17</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8945,16 +8945,16 @@
         <v>13</v>
       </c>
       <c r="C194" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8964,11 +8964,11 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>3:04.66L</t>
+          <t>1:08.26L</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>184.66</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8989,16 +8989,16 @@
         <v>13</v>
       </c>
       <c r="C195" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9008,11 +9008,11 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>1:09.08L</t>
+          <t>2:59.40L</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>69.08</v>
+        <v>179.4</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>13</v>
       </c>
       <c r="C196" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -9052,11 +9052,11 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1:08.26L</t>
+          <t>5:09.96L</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>68.26000000000001</v>
+        <v>309.96</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -9077,16 +9077,16 @@
         <v>13</v>
       </c>
       <c r="C197" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -9096,11 +9096,11 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2:59.40L</t>
+          <t>1:09.08L</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>179.4</v>
+        <v>69.08</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9121,16 +9121,16 @@
         <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9140,11 +9140,11 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5:09.96L</t>
+          <t>3:04.66L</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>309.96</v>
+        <v>184.66</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -9536,11 +9536,11 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>5:11.07L</t>
+          <t>1:08.10LL</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>311.07</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -9561,11 +9561,11 @@
         <v>13</v>
       </c>
       <c r="C208" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9580,11 +9580,11 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2:51.19L</t>
+          <t>30.59L</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>171.19</v>
+        <v>30.59</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -9605,16 +9605,16 @@
         <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -9624,11 +9624,11 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>1:08.10LL</t>
+          <t>2:51.19L</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>68.09999999999999</v>
+        <v>171.19</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -9668,11 +9668,11 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>30.59L</t>
+          <t>5:11.07L</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>30.59</v>
+        <v>311.07</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>1:10.02Y</t>
+          <t>1:03.59Y</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>70.02</v>
+        <v>63.59</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9888,11 +9888,11 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1:03.59Y</t>
+          <t>1:14.70Y</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>63.59</v>
+        <v>74.7</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9932,11 +9932,11 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1:14.70Y</t>
+          <t>1:30.58Y</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>74.7</v>
+        <v>90.58</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9976,11 +9976,11 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>1:30.58Y</t>
+          <t>1:10.02Y</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>90.58</v>
+        <v>70.02</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10397,16 +10397,16 @@
         <v>13</v>
       </c>
       <c r="C227" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -10416,11 +10416,11 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>1:06.17Y</t>
+          <t>26.06Y</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>66.17</v>
+        <v>26.06</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -10460,11 +10460,11 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>26.36Y</t>
+          <t>2:01.89Y</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>26.36</v>
+        <v>121.89</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10485,16 +10485,16 @@
         <v>13</v>
       </c>
       <c r="C229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -10504,11 +10504,11 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2:03.55Y</t>
+          <t>1:07.34Y</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>123.55</v>
+        <v>67.34</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -10548,11 +10548,11 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2:01.89Y</t>
+          <t>26.36Y</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>121.89</v>
+        <v>26.36</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="C231" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -10592,11 +10592,11 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>26.06Y</t>
+          <t>2:03.55Y</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>26.06</v>
+        <v>123.55</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -10636,11 +10636,11 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>1:07.34Y</t>
+          <t>1:06.17Y</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>67.34</v>
+        <v>66.17</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -11076,11 +11076,11 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2:27.76Y</t>
+          <t>2:27.62Y</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>147.76</v>
+        <v>147.62</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -11164,11 +11164,11 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2:27.62Y</t>
+          <t>2:27.76Y</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>147.62</v>
+        <v>147.76</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -11497,11 +11497,11 @@
         <v>14</v>
       </c>
       <c r="C252" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11516,11 +11516,11 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2:31.65Y</t>
+          <t>25.96Y</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>151.65</v>
+        <v>25.96</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
         <v>14</v>
       </c>
       <c r="C253" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -11560,11 +11560,11 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>11:11.49Y</t>
+          <t>5:24.55Y</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>671.49</v>
+        <v>324.55</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>14</v>
       </c>
       <c r="C254" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -11604,11 +11604,11 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>25.96Y</t>
+          <t>11:11.49Y</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>25.96</v>
+        <v>671.49</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11629,11 +11629,11 @@
         <v>14</v>
       </c>
       <c r="C255" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11648,11 +11648,11 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>5:24.55Y</t>
+          <t>2:31.65Y</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>324.55</v>
+        <v>151.65</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11981,16 +11981,16 @@
         <v>14</v>
       </c>
       <c r="C263" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -12000,11 +12000,11 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2:17.83Y</t>
+          <t>5:11.28Y</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>137.83</v>
+        <v>311.28</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12029,12 +12029,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -12044,11 +12044,11 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1:00.26Y</t>
+          <t>1:04.61YL</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>60.26</v>
+        <v>64.61</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12069,16 +12069,16 @@
         <v>14</v>
       </c>
       <c r="C265" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -12088,11 +12088,11 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>5:16.88Y</t>
+          <t>1:01.29Y</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>316.88</v>
+        <v>61.29</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12113,16 +12113,16 @@
         <v>14</v>
       </c>
       <c r="C266" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -12132,11 +12132,11 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>1:04.61YL</t>
+          <t>5:16.88Y</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>64.61</v>
+        <v>316.88</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12157,16 +12157,16 @@
         <v>14</v>
       </c>
       <c r="C267" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -12176,11 +12176,11 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>5:11.28Y</t>
+          <t>1:00.26Y</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>311.28</v>
+        <v>60.26</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12201,16 +12201,16 @@
         <v>14</v>
       </c>
       <c r="C268" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -12220,11 +12220,11 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>1:01.29Y</t>
+          <t>2:17.83Y</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>61.29</v>
+        <v>137.83</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -12421,16 +12421,16 @@
         <v>14</v>
       </c>
       <c r="C273" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -12440,11 +12440,11 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2:15.53Y</t>
+          <t>18:16.27Y</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>135.53</v>
+        <v>1096.27</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -12465,11 +12465,11 @@
         <v>14</v>
       </c>
       <c r="C274" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -12484,11 +12484,11 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>18:16.27Y</t>
+          <t>2:21.74Y</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>1096.27</v>
+        <v>141.74</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12509,16 +12509,16 @@
         <v>14</v>
       </c>
       <c r="C275" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -12528,11 +12528,11 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2:21.74Y</t>
+          <t>54.76Y</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>141.74</v>
+        <v>54.76</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12553,11 +12553,11 @@
         <v>14</v>
       </c>
       <c r="C276" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12572,11 +12572,11 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>54.76Y</t>
+          <t>2:15.53Y</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>54.76</v>
+        <v>135.53</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12597,11 +12597,11 @@
         <v>14</v>
       </c>
       <c r="C277" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12616,11 +12616,11 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>1:02.28Y</t>
+          <t>5:25.58Y</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>62.28</v>
+        <v>325.58</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12641,11 +12641,11 @@
         <v>14</v>
       </c>
       <c r="C278" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12660,11 +12660,11 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>5:25.58Y</t>
+          <t>1:02.28Y</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>325.58</v>
+        <v>62.28</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12993,11 +12993,11 @@
         <v>14</v>
       </c>
       <c r="C286" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -13012,11 +13012,11 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2:33.53L</t>
+          <t>28.70L</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>153.53</v>
+        <v>28.7</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -13037,11 +13037,11 @@
         <v>14</v>
       </c>
       <c r="C287" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13056,11 +13056,11 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>9:59.93L</t>
+          <t>2:33.53L</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>599.9299999999999</v>
+        <v>153.53</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
       <c r="C288" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -13100,11 +13100,11 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>28.70L</t>
+          <t>9:59.93L</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>28.7</v>
+        <v>599.9299999999999</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -13125,11 +13125,11 @@
         <v>14</v>
       </c>
       <c r="C289" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -13144,11 +13144,11 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>1:09.42L</t>
+          <t>2:17.40L</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>69.42</v>
+        <v>137.4</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13169,11 +13169,11 @@
         <v>14</v>
       </c>
       <c r="C290" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -13188,11 +13188,11 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>5:32.80L</t>
+          <t>2:35.38L</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>332.8</v>
+        <v>155.38</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -13213,11 +13213,11 @@
         <v>14</v>
       </c>
       <c r="C291" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -13232,11 +13232,11 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2:17.40L</t>
+          <t>1:09.42L</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>137.4</v>
+        <v>69.42</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13257,11 +13257,11 @@
         <v>14</v>
       </c>
       <c r="C292" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2:35.38L</t>
+          <t>5:32.80L</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>155.38</v>
+        <v>332.8</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -13653,11 +13653,11 @@
         <v>14</v>
       </c>
       <c r="C301" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -13672,11 +13672,11 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>18:47.63L</t>
+          <t>1:29.06L</t>
         </is>
       </c>
       <c r="H301" t="n">
-        <v>1127.63</v>
+        <v>89.06</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -13741,11 +13741,11 @@
         <v>14</v>
       </c>
       <c r="C303" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13760,11 +13760,11 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>1:29.06L</t>
+          <t>18:47.63L</t>
         </is>
       </c>
       <c r="H303" t="n">
-        <v>89.06</v>
+        <v>1127.63</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -14141,12 +14141,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -14156,11 +14156,11 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2:38.66L</t>
+          <t>2:14.63L</t>
         </is>
       </c>
       <c r="H312" t="n">
-        <v>158.66</v>
+        <v>134.63</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -14181,11 +14181,11 @@
         <v>14</v>
       </c>
       <c r="C313" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -14200,11 +14200,11 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>9:36.18L</t>
+          <t>2:30.49L</t>
         </is>
       </c>
       <c r="H313" t="n">
-        <v>576.1799999999999</v>
+        <v>150.49</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -14225,7 +14225,7 @@
         <v>14</v>
       </c>
       <c r="C314" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -14244,11 +14244,11 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2:12.82L</t>
+          <t>9:36.18L</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>132.82</v>
+        <v>576.1799999999999</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -14288,11 +14288,11 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2:14.63L</t>
+          <t>2:12.82L</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>134.63</v>
+        <v>132.82</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -14332,11 +14332,11 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2:30.49L</t>
+          <t>2:38.66L</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>150.49</v>
+        <v>158.66</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
         <v>14</v>
       </c>
       <c r="C323" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -14640,11 +14640,11 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>4:39.06L</t>
+          <t>1:00.76L</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>279.06</v>
+        <v>60.76</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
@@ -14665,16 +14665,16 @@
         <v>14</v>
       </c>
       <c r="C324" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -14684,11 +14684,11 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>1:03.59L</t>
+          <t>2:35.55L</t>
         </is>
       </c>
       <c r="H324" t="n">
-        <v>63.59</v>
+        <v>155.55</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>14</v>
       </c>
       <c r="C325" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -14728,11 +14728,11 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2:40.03L</t>
+          <t>4:38.37L</t>
         </is>
       </c>
       <c r="H325" t="n">
-        <v>160.03</v>
+        <v>278.37</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -14753,16 +14753,16 @@
         <v>14</v>
       </c>
       <c r="C326" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -14772,11 +14772,11 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2:35.55L</t>
+          <t>1:03.59L</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>155.55</v>
+        <v>63.59</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
@@ -14797,16 +14797,16 @@
         <v>14</v>
       </c>
       <c r="C327" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -14816,11 +14816,11 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>1:00.76L</t>
+          <t>2:40.03L</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>60.76</v>
+        <v>160.03</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14850,7 +14850,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -14860,11 +14860,11 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>4:38.37L</t>
+          <t>4:39.06L</t>
         </is>
       </c>
       <c r="H328" t="n">
-        <v>278.37</v>
+        <v>279.06</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
@@ -15281,16 +15281,16 @@
         <v>14</v>
       </c>
       <c r="C338" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -15300,11 +15300,11 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2:38.27L</t>
+          <t>1:05.81L</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>158.27</v>
+        <v>65.81</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -15344,11 +15344,11 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2:53.52L</t>
+          <t>2:48.77L</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>173.52</v>
+        <v>168.77</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15369,16 +15369,16 @@
         <v>14</v>
       </c>
       <c r="C340" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -15388,11 +15388,11 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>1:03.13L</t>
+          <t>2:33.59L</t>
         </is>
       </c>
       <c r="H340" t="n">
-        <v>63.13</v>
+        <v>153.59</v>
       </c>
       <c r="I340" t="inlineStr">
         <is>
@@ -15413,16 +15413,16 @@
         <v>14</v>
       </c>
       <c r="C341" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -15432,11 +15432,11 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2:48.77L</t>
+          <t>1:03.13L</t>
         </is>
       </c>
       <c r="H341" t="n">
-        <v>168.77</v>
+        <v>63.13</v>
       </c>
       <c r="I341" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15457,16 +15457,16 @@
         <v>14</v>
       </c>
       <c r="C342" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -15476,11 +15476,11 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>1:05.81L</t>
+          <t>2:53.52L</t>
         </is>
       </c>
       <c r="H342" t="n">
-        <v>65.81</v>
+        <v>173.52</v>
       </c>
       <c r="I342" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -15520,11 +15520,11 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2:33.59L</t>
+          <t>2:38.27L</t>
         </is>
       </c>
       <c r="H343" t="n">
-        <v>153.59</v>
+        <v>158.27</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -15784,11 +15784,11 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>40.16Y</t>
+          <t>25.63Y</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>40.16</v>
+        <v>25.63</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -15828,11 +15828,11 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>27.67Y</t>
+          <t>30.76Y</t>
         </is>
       </c>
       <c r="H350" t="n">
-        <v>27.67</v>
+        <v>30.76</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -15857,7 +15857,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -15872,11 +15872,11 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>25.63Y</t>
+          <t>40.16Y</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>25.63</v>
+        <v>40.16</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -15916,11 +15916,11 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>30.76Y</t>
+          <t>27.67Y</t>
         </is>
       </c>
       <c r="H352" t="n">
-        <v>30.76</v>
+        <v>27.67</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
         <v>14</v>
       </c>
       <c r="C353" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -15960,11 +15960,11 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>5:07.14Y</t>
+          <t>24.78Y</t>
         </is>
       </c>
       <c r="H353" t="n">
-        <v>307.14</v>
+        <v>24.78</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15985,11 +15985,11 @@
         <v>14</v>
       </c>
       <c r="C354" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -16004,11 +16004,11 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2:22.71Y</t>
+          <t>5:07.14Y</t>
         </is>
       </c>
       <c r="H354" t="n">
-        <v>142.71</v>
+        <v>307.14</v>
       </c>
       <c r="I354" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -16029,11 +16029,11 @@
         <v>14</v>
       </c>
       <c r="C355" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -16048,11 +16048,11 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>24.78Y</t>
+          <t>2:22.71Y</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>24.78</v>
+        <v>142.71</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16073,11 +16073,11 @@
         <v>14</v>
       </c>
       <c r="C356" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -16092,11 +16092,11 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>5:07.00Y</t>
+          <t>25.85YL</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>307</v>
+        <v>25.85</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>14</v>
       </c>
       <c r="C357" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -16136,11 +16136,11 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>25.85YL</t>
+          <t>1:59.28Y</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>25.85</v>
+        <v>119.28</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16161,11 +16161,11 @@
         <v>14</v>
       </c>
       <c r="C358" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -16180,11 +16180,11 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1:59.28Y</t>
+          <t>1:04.50Y</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>119.28</v>
+        <v>64.5</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16205,11 +16205,11 @@
         <v>14</v>
       </c>
       <c r="C359" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -16224,11 +16224,11 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1:04.50Y</t>
+          <t>3:03.74Y</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>64.5</v>
+        <v>183.74</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -16249,11 +16249,11 @@
         <v>14</v>
       </c>
       <c r="C360" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -16268,11 +16268,11 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3:03.74Y</t>
+          <t>1:01.43Y</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>183.74</v>
+        <v>61.43</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16293,7 +16293,7 @@
         <v>14</v>
       </c>
       <c r="C361" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -16312,11 +16312,11 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>1:01.43Y</t>
+          <t>2:36.92Y</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>61.43</v>
+        <v>156.92</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>&lt;B</t>
         </is>
       </c>
     </row>
@@ -16337,11 +16337,11 @@
         <v>14</v>
       </c>
       <c r="C362" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -16356,11 +16356,11 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2:36.92Y</t>
+          <t>5:07.00Y</t>
         </is>
       </c>
       <c r="H362" t="n">
-        <v>156.92</v>
+        <v>307</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>&lt;B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16381,11 +16381,11 @@
         <v>14</v>
       </c>
       <c r="C363" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16400,11 +16400,11 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2:14.41Y</t>
+          <t>53.48Y</t>
         </is>
       </c>
       <c r="H363" t="n">
-        <v>134.41</v>
+        <v>53.48</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16469,11 +16469,11 @@
         <v>14</v>
       </c>
       <c r="C365" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -16488,11 +16488,11 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>53.48Y</t>
+          <t>2:14.41Y</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>53.48</v>
+        <v>134.41</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16595,13 +16595,13 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="B368" t="n">
         <v>14</v>
       </c>
       <c r="C368" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -16620,32 +16620,32 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2:02.67Y</t>
+          <t>5:04.05Y</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>122.67</v>
+        <v>304.05</v>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>2025 Wildcats Invitational</t>
+          <t>Jenks Gobbler Invitational 202</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45966</v>
+        <v>45969</v>
       </c>
       <c r="B369" t="n">
         <v>14</v>
       </c>
       <c r="C369" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -16664,36 +16664,36 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>5:29.01Y</t>
+          <t>1:52.68Y</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>329.01</v>
+        <v>112.68</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>2025 Wildcats Invitational</t>
+          <t>Jenks Gobbler Invitational 202</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B370" t="n">
         <v>14</v>
       </c>
       <c r="C370" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -16708,11 +16708,11 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>5:04.05Y</t>
+          <t>57.90Y</t>
         </is>
       </c>
       <c r="H370" t="n">
-        <v>304.05</v>
+        <v>57.9</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
@@ -16733,11 +16733,11 @@
         <v>14</v>
       </c>
       <c r="C371" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -16752,11 +16752,11 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>57.90Y</t>
+          <t>2:10.20Y</t>
         </is>
       </c>
       <c r="H371" t="n">
-        <v>57.9</v>
+        <v>130.2</v>
       </c>
       <c r="I371" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16781,12 +16781,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -16796,11 +16796,11 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2:10.20Y</t>
+          <t>1:58.45Y</t>
         </is>
       </c>
       <c r="H372" t="n">
-        <v>130.2</v>
+        <v>118.45</v>
       </c>
       <c r="I372" t="inlineStr">
         <is>
@@ -16821,11 +16821,11 @@
         <v>14</v>
       </c>
       <c r="C373" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -16840,11 +16840,11 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>1:58.45Y</t>
+          <t>1:00.50Y</t>
         </is>
       </c>
       <c r="H373" t="n">
-        <v>118.45</v>
+        <v>60.5</v>
       </c>
       <c r="I373" t="inlineStr">
         <is>
@@ -16865,11 +16865,11 @@
         <v>14</v>
       </c>
       <c r="C374" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -16884,11 +16884,11 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1:00.50Y</t>
+          <t>2:18.16Y</t>
         </is>
       </c>
       <c r="H374" t="n">
-        <v>60.5</v>
+        <v>138.16</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -16897,28 +16897,28 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B375" t="n">
         <v>14</v>
       </c>
       <c r="C375" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -16928,11 +16928,11 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>2:18.16Y</t>
+          <t>51.07Y</t>
         </is>
       </c>
       <c r="H375" t="n">
-        <v>138.16</v>
+        <v>51.07</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
@@ -16941,23 +16941,23 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B376" t="n">
         <v>14</v>
       </c>
       <c r="C376" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -16972,11 +16972,11 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>1:52.68Y</t>
+          <t>58.51Y</t>
         </is>
       </c>
       <c r="H376" t="n">
-        <v>112.68</v>
+        <v>58.51</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Prelims</t>
+          <t>Finals</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -17016,11 +17016,11 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>2:12.84Y</t>
+          <t>2:07.41Y</t>
         </is>
       </c>
       <c r="H377" t="n">
-        <v>132.84</v>
+        <v>127.41</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -17060,11 +17060,11 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>1:01.09Y</t>
+          <t>53.83Y</t>
         </is>
       </c>
       <c r="H378" t="n">
-        <v>61.09</v>
+        <v>53.83</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -17104,11 +17104,11 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>53.83Y</t>
+          <t>1:01.09Y</t>
         </is>
       </c>
       <c r="H379" t="n">
-        <v>53.83</v>
+        <v>61.09</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17129,16 +17129,16 @@
         <v>14</v>
       </c>
       <c r="C380" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -17148,11 +17148,11 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>51.07Y</t>
+          <t>2:12.84Y</t>
         </is>
       </c>
       <c r="H380" t="n">
-        <v>51.07</v>
+        <v>132.84</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
@@ -17161,23 +17161,23 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45970</v>
+        <v>45982</v>
       </c>
       <c r="B381" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C381" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -17192,36 +17192,36 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>2:07.41Y</t>
+          <t>10:51.35Y</t>
         </is>
       </c>
       <c r="H381" t="n">
-        <v>127.41</v>
+        <v>651.35</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Jenks Gobbler Invitational 202</t>
+          <t>Friday Night Frenzy #17</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45970</v>
+        <v>46031</v>
       </c>
       <c r="B382" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C382" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -17236,36 +17236,36 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>58.51Y</t>
+          <t>10:18.56Y</t>
         </is>
       </c>
       <c r="H382" t="n">
-        <v>58.51</v>
+        <v>618.5599999999999</v>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Jenks Gobbler Invitational 202</t>
+          <t>30th Annual NWAA Winter Invita</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45981</v>
+        <v>46032</v>
       </c>
       <c r="B383" t="n">
         <v>15</v>
       </c>
       <c r="C383" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>IM</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -17280,36 +17280,36 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>2:15.94Y</t>
+          <t>50.75Y</t>
         </is>
       </c>
       <c r="H383" t="n">
-        <v>135.94</v>
+        <v>50.75</v>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>2025 FHS Bulldog Classic</t>
+          <t>30th Annual NWAA Winter Invita</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45981</v>
+        <v>46032</v>
       </c>
       <c r="B384" t="n">
         <v>15</v>
       </c>
       <c r="C384" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -17324,36 +17324,36 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>1:16.57Y</t>
+          <t>2:08.28Y</t>
         </is>
       </c>
       <c r="H384" t="n">
-        <v>76.56999999999999</v>
+        <v>128.28</v>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>2025 FHS Bulldog Classic</t>
+          <t>30th Annual NWAA Winter Invita</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45982</v>
+        <v>46032</v>
       </c>
       <c r="B385" t="n">
         <v>15</v>
       </c>
       <c r="C385" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>IM</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -17368,32 +17368,32 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>10:51.35Y</t>
+          <t>4:38.15Y</t>
         </is>
       </c>
       <c r="H385" t="n">
-        <v>651.35</v>
+        <v>278.15</v>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Friday Night Frenzy #17</t>
+          <t>30th Annual NWAA Winter Invita</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>46003</v>
+        <v>46032</v>
       </c>
       <c r="B386" t="n">
         <v>15</v>
       </c>
       <c r="C386" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Finals</t>
+          <t>Prelims</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -17412,64 +17412,416 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2:01.24Y</t>
+          <t>51.40Y</t>
         </is>
       </c>
       <c r="H386" t="n">
-        <v>121.24</v>
+        <v>51.4</v>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Bentonville Schools Classic 12.12.25</t>
+          <t>30th Annual NWAA Winter Invita</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>46003</v>
+        <v>46032</v>
       </c>
       <c r="B387" t="n">
         <v>15</v>
       </c>
       <c r="C387" t="n">
+        <v>200</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Prelims</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>2:18.50Y</t>
+        </is>
+      </c>
+      <c r="H387" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B388" t="n">
+        <v>15</v>
+      </c>
+      <c r="C388" t="n">
+        <v>400</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Prelims</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>5:05.14Y</t>
+        </is>
+      </c>
+      <c r="H388" t="n">
+        <v>305.14</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B389" t="n">
+        <v>15</v>
+      </c>
+      <c r="C389" t="n">
         <v>500</v>
       </c>
-      <c r="D387" t="inlineStr">
+      <c r="D389" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>Finals</t>
-        </is>
-      </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>Yards</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>5:12.30Y</t>
-        </is>
-      </c>
-      <c r="H387" t="n">
-        <v>312.3</v>
-      </c>
-      <c r="I387" t="inlineStr">
-        <is>
-          <t>Bentonville Schools Classic 12.12.25</t>
-        </is>
-      </c>
-      <c r="J387" t="inlineStr">
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>4:57.11Y</t>
+        </is>
+      </c>
+      <c r="H389" t="n">
+        <v>297.11</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B390" t="n">
+        <v>15</v>
+      </c>
+      <c r="C390" t="n">
+        <v>100</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>1:02.19Y</t>
+        </is>
+      </c>
+      <c r="H390" t="n">
+        <v>62.19</v>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B391" t="n">
+        <v>15</v>
+      </c>
+      <c r="C391" t="n">
+        <v>200</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>2:12.90Y</t>
+        </is>
+      </c>
+      <c r="H391" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B392" t="n">
+        <v>15</v>
+      </c>
+      <c r="C392" t="n">
+        <v>500</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Prelims</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>5:05.36Y</t>
+        </is>
+      </c>
+      <c r="H392" t="n">
+        <v>305.36</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B393" t="n">
+        <v>15</v>
+      </c>
+      <c r="C393" t="n">
+        <v>100</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Prelims</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>58.84Y</t>
+        </is>
+      </c>
+      <c r="H393" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B394" t="n">
+        <v>15</v>
+      </c>
+      <c r="C394" t="n">
+        <v>200</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Prelims</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>2:19.25Y</t>
+        </is>
+      </c>
+      <c r="H394" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>30th Annual NWAA Winter Invita</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="B395" t="n">
+        <v>15</v>
+      </c>
+      <c r="C395" t="n">
+        <v>200</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Finals</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Yards</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2:01.23Y</t>
+        </is>
+      </c>
+      <c r="H395" t="n">
+        <v>121.23</v>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Friday Night Frenzy #18</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>BB</t>
         </is>
       </c>
     </row>
